--- a/R sheet.xlsx
+++ b/R sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A47576-6DFC-4358-85A6-34A038C7FEB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A7BC5-D84A-41D4-8E2F-5443074214DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4970" xr2:uid="{E6343879-E016-403D-8FDB-CFFE53EA0C7F}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="256" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,7 +503,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>7172846929</v>
+        <f>7172846929/1000000</f>
+        <v>7172.8469290000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -511,7 +512,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>1634774129</v>
+        <f>1634774129/1000000</f>
+        <v>1634.7741289999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -519,7 +521,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>996604771</v>
+        <f>996604771/1000000</f>
+        <v>996.60477100000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -527,7 +530,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>727299327</v>
+        <f>727299327/1000000</f>
+        <v>727.29932699999995</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -535,7 +539,8 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>256876719</v>
+        <f>256876719/1000000</f>
+        <v>256.87671899999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -543,7 +548,8 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>492840352</v>
+        <f>492840352/1000000</f>
+        <v>492.840352</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">

--- a/R sheet.xlsx
+++ b/R sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A7BC5-D84A-41D4-8E2F-5443074214DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11152F09-0C65-4401-8491-D1A21BA89E96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4970" xr2:uid="{E6343879-E016-403D-8FDB-CFFE53EA0C7F}"/>
   </bookViews>
@@ -503,8 +503,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <f>7172846929/1000000</f>
-        <v>7172.8469290000003</v>
+        <f>7172846929/1000000000</f>
+        <v>7.1728469290000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -512,8 +512,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <f>1634774129/1000000</f>
-        <v>1634.7741289999999</v>
+        <f>1634774129/1000000000</f>
+        <v>1.634774129</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -521,8 +521,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <f>996604771/1000000</f>
-        <v>996.60477100000003</v>
+        <f>996604771/1000000000</f>
+        <v>0.996604771</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -530,8 +530,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <f>727299327/1000000</f>
-        <v>727.29932699999995</v>
+        <f>727299327/1000000000</f>
+        <v>0.727299327</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -539,8 +539,8 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <f>256876719/1000000</f>
-        <v>256.87671899999998</v>
+        <f>256876719/1000000000</f>
+        <v>0.25687671899999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -548,8 +548,8 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <f>492840352/1000000</f>
-        <v>492.840352</v>
+        <f>492840352/1000000000</f>
+        <v>0.49284035199999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">

--- a/R sheet.xlsx
+++ b/R sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11152F09-0C65-4401-8491-D1A21BA89E96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766EDE72-17AB-47E2-A3EA-ED31B7F787B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4970" xr2:uid="{E6343879-E016-403D-8FDB-CFFE53EA0C7F}"/>
   </bookViews>
@@ -482,12 +482,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="256" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -503,8 +503,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <f>7172846929/1000000000</f>
-        <v>7.1728469290000003</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -512,8 +511,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <f>1634774129/1000000000</f>
-        <v>1.634774129</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -521,8 +519,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <f>996604771/1000000000</f>
-        <v>0.996604771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -530,8 +527,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <f>727299327/1000000000</f>
-        <v>0.727299327</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -539,8 +535,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <f>256876719/1000000000</f>
-        <v>0.25687671899999998</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -548,8 +543,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <f>492840352/1000000000</f>
-        <v>0.49284035199999998</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">

--- a/R sheet.xlsx
+++ b/R sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766EDE72-17AB-47E2-A3EA-ED31B7F787B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A83457-0521-4605-BFDC-97B18B58F5B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4970" xr2:uid="{E6343879-E016-403D-8FDB-CFFE53EA0C7F}"/>
   </bookViews>
